--- a/branches/master/ValueSet-food-allergy-questionnaire_food-allergy-questionnaire.xlsx
+++ b/branches/master/ValueSet-food-allergy-questionnaire_food-allergy-questionnaire.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/branches/master/ValueSet-food-allergy-questionnaire_food-allergy-questionnaire.xlsx
+++ b/branches/master/ValueSet-food-allergy-questionnaire_food-allergy-questionnaire.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/food-allergy/Questionnaire/food-allergy-questionnaire#vs-food-allergy-clinstatus-cont</t>
+    <t>http://example.com/fhir/testable/Questionnaire/food-allergy-questionnaire#vs-food-allergy-clinstatus-cont</t>
   </si>
   <si>
     <t>Version</t>
